--- a/korea-prop-buildings-seoul-20160819/korea-prop-buildings-seoul-20160819.xlsx
+++ b/korea-prop-buildings-seoul-20160819/korea-prop-buildings-seoul-20160819.xlsx
@@ -44,13 +44,10 @@
     <t>subhed</t>
   </si>
   <si>
-    <t xml:space="preserve">The total number of &lt;strong&gt;apartment buildings&lt;/strong&gt; in South Korea taller than &lt;strong&gt;five floors&lt;/strong&gt; has grown each year since 2005, a cumulative increase of more than 60 percent. </t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>footnote</t>
+    <t xml:space="preserve">The total number of &lt;strong&gt;apartment buildings&lt;/strong&gt; in South Korea taller than &lt;strong&gt;five floors&lt;/strong&gt; has grown each year since 2005, a cumulative increase of more than 60 percent. </t>
   </si>
   <si>
     <t>1 Floor</t>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>01/01/05</t>
+  </si>
+  <si>
+    <t>footnote</t>
   </si>
   <si>
     <t>source</t>
@@ -80,31 +80,13 @@
     <t>annotation_label-31</t>
   </si>
   <si>
-    <t>1.4k</t>
-  </si>
-  <si>
-    <t>annotation_label-21-30</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>annotation_label-6-10</t>
-  </si>
-  <si>
-    <t>77k</t>
-  </si>
-  <si>
-    <t>annotation_label-11-20</t>
-  </si>
-  <si>
-    <t>81k</t>
-  </si>
-  <si>
     <t>6,369,782.0</t>
   </si>
   <si>
     <t>01/01/06</t>
+  </si>
+  <si>
+    <t>1.4k</t>
   </si>
   <si>
     <t>6,290,263.0</t>
@@ -125,6 +107,12 @@
     <t>01/01/09</t>
   </si>
   <si>
+    <t>annotation_label-21-30</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
     <t>6,618,131.0</t>
   </si>
   <si>
@@ -134,6 +122,9 @@
     <t>6,676,518.0</t>
   </si>
   <si>
+    <t>annotation_label-6-10</t>
+  </si>
+  <si>
     <t>01/01/11</t>
   </si>
   <si>
@@ -141,6 +132,9 @@
   </si>
   <si>
     <t>01/01/12</t>
+  </si>
+  <si>
+    <t>77k</t>
   </si>
   <si>
     <t>6,796,239.0</t>
@@ -155,7 +149,13 @@
     <t>01/01/14</t>
   </si>
   <si>
+    <t>annotation_label-11-20</t>
+  </si>
+  <si>
     <t>6,911,288.0</t>
+  </si>
+  <si>
+    <t>81k</t>
   </si>
   <si>
     <t>01/01/15</t>
@@ -236,12 +236,7 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -263,7 +258,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -275,8 +269,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -284,74 +276,74 @@
   </cellStyleXfs>
   <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="2" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="3" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -361,15 +353,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,8 +442,8 @@
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>10</v>
+      <c r="B3" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -477,9 +472,9 @@
     </row>
     <row r="4" ht="33.0" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -541,7 +536,7 @@
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="7"/>
@@ -570,11 +565,11 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>22</v>
+      <c r="B7" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -602,11 +597,11 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>24</v>
+      <c r="A8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -634,11 +629,11 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>26</v>
+      <c r="A9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -666,11 +661,11 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>28</v>
+      <c r="A10" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -872,6 +867,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -905,324 +903,324 @@
       <c r="F1" s="6"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="I1" s="9"/>
       <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>52011.0</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>53355.0</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>8241.0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>164.0</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="13">
+        <v>4139161.0</v>
+      </c>
+      <c r="K2" s="13">
+        <v>2004236.0</v>
+      </c>
+      <c r="L2" s="13">
+        <v>112614.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="13">
+        <v>51481.0</v>
+      </c>
+      <c r="C3" s="13">
+        <v>55396.0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>8669.0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>215.0</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="13">
+        <v>4071736.0</v>
+      </c>
+      <c r="K3" s="13">
+        <v>1980525.0</v>
+      </c>
+      <c r="L3" s="13">
+        <v>110678.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="13">
+        <v>54933.0</v>
+      </c>
+      <c r="C4" s="13">
+        <v>60461.0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>9904.0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>330.0</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="13">
+        <v>4168077.0</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2045340.0</v>
+      </c>
+      <c r="L4" s="13">
+        <v>116577.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="13">
+        <v>54706.0</v>
+      </c>
+      <c r="C5" s="13">
+        <v>63702.0</v>
+      </c>
+      <c r="D5" s="13">
+        <v>10720.0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>503.0</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="14">
-        <v>4139161.0</v>
-      </c>
-      <c r="K2" s="14">
-        <v>2004236.0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>112614.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="J5" s="13">
+        <v>4215786.0</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2060658.0</v>
+      </c>
+      <c r="L5" s="13">
+        <v>118524.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14">
-        <v>51481.0</v>
-      </c>
-      <c r="C3" s="14">
-        <v>55396.0</v>
-      </c>
-      <c r="D3" s="14">
-        <v>8669.0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>215.0</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="14">
-        <v>4071736.0</v>
-      </c>
-      <c r="K3" s="14">
-        <v>1980525.0</v>
-      </c>
-      <c r="L3" s="14">
-        <v>110678.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="14">
-        <v>54933.0</v>
-      </c>
-      <c r="C4" s="14">
-        <v>60461.0</v>
-      </c>
-      <c r="D4" s="14">
-        <v>9904.0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>330.0</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="B6" s="13">
+        <v>56399.0</v>
+      </c>
+      <c r="C6" s="13">
+        <v>66882.0</v>
+      </c>
+      <c r="D6" s="13">
+        <v>11409.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>583.0</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="14">
-        <v>4168077.0</v>
-      </c>
-      <c r="K4" s="14">
-        <v>2045340.0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>116577.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="J6" s="13">
+        <v>4247523.0</v>
+      </c>
+      <c r="K6" s="13">
+        <v>2084223.0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>121537.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="14">
-        <v>54706.0</v>
-      </c>
-      <c r="C5" s="14">
-        <v>63702.0</v>
-      </c>
-      <c r="D5" s="14">
-        <v>10720.0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>503.0</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="B7" s="13">
+        <v>58471.0</v>
+      </c>
+      <c r="C7" s="13">
+        <v>70049.0</v>
+      </c>
+      <c r="D7" s="13">
+        <v>12285.0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>753.0</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="14">
-        <v>4215786.0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2060658.0</v>
-      </c>
-      <c r="L5" s="14">
-        <v>118524.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="14">
-        <v>56399.0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>66882.0</v>
-      </c>
-      <c r="D6" s="14">
-        <v>11409.0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>583.0</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="J7" s="13">
+        <v>4265431.0</v>
+      </c>
+      <c r="K7" s="13">
+        <v>2113762.0</v>
+      </c>
+      <c r="L7" s="13">
+        <v>125642.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="14">
-        <v>4247523.0</v>
-      </c>
-      <c r="K6" s="14">
-        <v>2084223.0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>121537.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="B8" s="13">
+        <v>61192.0</v>
+      </c>
+      <c r="C8" s="13">
+        <v>72148.0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>12954.0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>887.0</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="14">
-        <v>58471.0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>70049.0</v>
-      </c>
-      <c r="D7" s="14">
-        <v>12285.0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>753.0</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="J8" s="13">
+        <v>4286114.0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2146763.0</v>
+      </c>
+      <c r="L8" s="13">
+        <v>130846.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="14">
-        <v>4265431.0</v>
-      </c>
-      <c r="K7" s="14">
-        <v>2113762.0</v>
-      </c>
-      <c r="L7" s="14">
-        <v>125642.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="14">
-        <v>61192.0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>72148.0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>12954.0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>887.0</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18" t="s">
+      <c r="B9" s="13">
+        <v>64560.0</v>
+      </c>
+      <c r="C9" s="13">
+        <v>73936.0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>13599.0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1020.0</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="14">
-        <v>4286114.0</v>
-      </c>
-      <c r="K8" s="14">
-        <v>2146763.0</v>
-      </c>
-      <c r="L8" s="14">
-        <v>130846.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="J9" s="13">
+        <v>4305333.0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>2180533.0</v>
+      </c>
+      <c r="L9" s="13">
+        <v>137463.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="14">
-        <v>64560.0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>73936.0</v>
-      </c>
-      <c r="D9" s="14">
-        <v>13599.0</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1020.0</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="B10" s="13">
+        <v>67666.0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>75960.0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>14203.0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>1189.0</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="14">
-        <v>4305333.0</v>
-      </c>
-      <c r="K9" s="14">
-        <v>2180533.0</v>
-      </c>
-      <c r="L9" s="14">
-        <v>137463.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="J10" s="13">
+        <v>4319571.0</v>
+      </c>
+      <c r="K10" s="13">
+        <v>2210286.0</v>
+      </c>
+      <c r="L10" s="13">
+        <v>142971.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14">
-        <v>67666.0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>75960.0</v>
-      </c>
-      <c r="D10" s="14">
-        <v>14203.0</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1189.0</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="14">
-        <v>4319571.0</v>
-      </c>
-      <c r="K10" s="14">
-        <v>2210286.0</v>
-      </c>
-      <c r="L10" s="14">
-        <v>142971.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="13">
+        <v>71714.0</v>
+      </c>
+      <c r="C11" s="13">
+        <v>78041.0</v>
+      </c>
+      <c r="D11" s="13">
+        <v>15127.0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1319.0</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="14">
-        <v>71714.0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>78041.0</v>
-      </c>
-      <c r="D11" s="14">
-        <v>15127.0</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1319.0</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>4335822.0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>2241023.0</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>148087.0</v>
       </c>
     </row>
@@ -1230,29 +1228,29 @@
       <c r="A12" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>76542.0</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>80836.0</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>16413.0</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1478.0</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>4356666.0</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>2279814.0</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="13">
         <v>154587.0</v>
       </c>
     </row>
